--- a/גאנט.xlsx
+++ b/גאנט.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADB032A-A91D-4BB5-A100-A373FC56B039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4FB6CB-77BF-43D9-8595-ECB1D889E3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12567" yWindow="0" windowWidth="12568" windowHeight="13523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ניהול מחסן גאנט" sheetId="2" r:id="rId1"/>
@@ -919,7 +919,7 @@
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1039,18 +1039,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="25" fillId="40" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="25" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="25" fillId="40" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="25" fillId="40" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="25" fillId="40" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="25" fillId="40" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,7 +1133,39 @@
     <cellStyle name="פקד סימון תקופה" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="תווית" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1424,8 +1444,8 @@
   </sheetPr>
   <dimension ref="A1:BD33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="29.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1525,73 +1545,73 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:56" ht="20.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" ht="32.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="F3" s="53">
+      <c r="F3" s="49">
         <f>F4</f>
         <v>45772</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="51">
+      <c r="G3" s="50"/>
+      <c r="H3" s="47">
         <f>H4</f>
         <v>45774</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="50">
-        <f t="shared" ref="O3" si="0">O4</f>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="46">
+        <f>O4</f>
         <v>45781</v>
       </c>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="50">
-        <f t="shared" ref="V3" si="1">V4</f>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="46">
+        <f>V4</f>
         <v>45788</v>
       </c>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="50">
-        <f t="shared" ref="AC3" si="2">AC4</f>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="46">
+        <f>AC4</f>
         <v>45795</v>
       </c>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="48">
-        <f t="shared" ref="AJ3" si="3">AJ4</f>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="44">
+        <f>AJ4</f>
         <v>45802</v>
       </c>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="50">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="46">
         <f>AQ4</f>
         <v>45809</v>
       </c>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="51"/>
-      <c r="AT3" s="52"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="48"/>
       <c r="AU3" s="28"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
@@ -1614,163 +1634,163 @@
         <f>F4+1</f>
         <v>45773</v>
       </c>
-      <c r="H4" s="37">
-        <f t="shared" ref="H4:AO4" si="4">G4+1</f>
+      <c r="H4" s="35">
+        <f t="shared" ref="H4:AT4" si="0">G4+1</f>
         <v>45774</v>
       </c>
       <c r="I4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45775</v>
       </c>
       <c r="J4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45776</v>
       </c>
       <c r="K4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45777</v>
       </c>
       <c r="L4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45778</v>
       </c>
       <c r="M4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45779</v>
       </c>
       <c r="N4" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45780</v>
       </c>
       <c r="O4" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45781</v>
       </c>
       <c r="P4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45782</v>
       </c>
       <c r="Q4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45783</v>
       </c>
       <c r="R4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45784</v>
       </c>
       <c r="S4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45785</v>
       </c>
       <c r="T4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45786</v>
       </c>
       <c r="U4" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45787</v>
       </c>
       <c r="V4" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45788</v>
       </c>
       <c r="W4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45789</v>
       </c>
       <c r="X4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45790</v>
       </c>
       <c r="Y4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45791</v>
       </c>
       <c r="Z4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45792</v>
       </c>
       <c r="AA4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45793</v>
       </c>
       <c r="AB4" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45794</v>
       </c>
       <c r="AC4" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45795</v>
       </c>
       <c r="AD4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45796</v>
       </c>
       <c r="AE4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45797</v>
       </c>
       <c r="AF4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45798</v>
       </c>
       <c r="AG4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45799</v>
       </c>
       <c r="AH4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45800</v>
       </c>
-      <c r="AI4" s="37">
-        <f t="shared" si="4"/>
+      <c r="AI4" s="36">
+        <f t="shared" si="0"/>
         <v>45801</v>
       </c>
       <c r="AJ4" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45802</v>
       </c>
       <c r="AK4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45803</v>
       </c>
       <c r="AL4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45804</v>
       </c>
       <c r="AM4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45805</v>
       </c>
       <c r="AN4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45806</v>
       </c>
       <c r="AO4" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>45807</v>
       </c>
       <c r="AP4" s="36">
-        <f t="shared" ref="AP4" si="5">AO4+1</f>
+        <f t="shared" si="0"/>
         <v>45808</v>
       </c>
-      <c r="AQ4" s="37">
-        <f t="shared" ref="AQ4" si="6">AP4+1</f>
+      <c r="AQ4" s="35">
+        <f t="shared" si="0"/>
         <v>45809</v>
       </c>
       <c r="AR4" s="37">
-        <f t="shared" ref="AR4" si="7">AQ4+1</f>
+        <f t="shared" si="0"/>
         <v>45810</v>
       </c>
       <c r="AS4" s="37">
-        <f t="shared" ref="AS4:AT4" si="8">AR4+1</f>
+        <f t="shared" si="0"/>
         <v>45811</v>
       </c>
       <c r="AT4" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>45812</v>
       </c>
-      <c r="AU4" s="1"/>
+      <c r="AU4" s="28"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
@@ -1781,174 +1801,174 @@
     </row>
     <row r="5" spans="1:56" s="6" customFormat="1" ht="60.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="42" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="38" t="str">
-        <f t="shared" ref="F5:AT5" si="9">RIGHT(TEXT(F4,"ddd"),1)</f>
+        <f>RIGHT(TEXT(F4,"ddd"),1)</f>
         <v>ו</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(H4,"ddd"),1)</f>
         <v>א</v>
       </c>
       <c r="I5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(I4,"ddd"),1)</f>
         <v>ב</v>
       </c>
       <c r="J5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(J4,"ddd"),1)</f>
         <v>ג</v>
       </c>
       <c r="K5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(K4,"ddd"),1)</f>
         <v>ד</v>
       </c>
       <c r="L5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(L4,"ddd"),1)</f>
         <v>ה</v>
       </c>
       <c r="M5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(M4,"ddd"),1)</f>
         <v>ו</v>
       </c>
       <c r="N5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="38" t="str">
-        <f t="shared" si="9"/>
+      <c r="O5" s="40" t="str">
+        <f>RIGHT(TEXT(O4,"ddd"),1)</f>
         <v>א</v>
       </c>
       <c r="P5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(P4,"ddd"),1)</f>
         <v>ב</v>
       </c>
       <c r="Q5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(Q4,"ddd"),1)</f>
         <v>ג</v>
       </c>
       <c r="R5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(R4,"ddd"),1)</f>
         <v>ד</v>
       </c>
       <c r="S5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(S4,"ddd"),1)</f>
         <v>ה</v>
       </c>
       <c r="T5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(T4,"ddd"),1)</f>
         <v>ו</v>
       </c>
       <c r="U5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="38" t="str">
-        <f t="shared" si="9"/>
+      <c r="V5" s="40" t="str">
+        <f>RIGHT(TEXT(V4,"ddd"),1)</f>
         <v>א</v>
       </c>
       <c r="W5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(W4,"ddd"),1)</f>
         <v>ב</v>
       </c>
       <c r="X5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(X4,"ddd"),1)</f>
         <v>ג</v>
       </c>
       <c r="Y5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(Y4,"ddd"),1)</f>
         <v>ד</v>
       </c>
       <c r="Z5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(Z4,"ddd"),1)</f>
         <v>ה</v>
       </c>
       <c r="AA5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(AA4,"ddd"),1)</f>
         <v>ו</v>
       </c>
       <c r="AB5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="38" t="str">
-        <f t="shared" si="9"/>
+      <c r="AC5" s="40" t="str">
+        <f>RIGHT(TEXT(AC4,"ddd"),1)</f>
         <v>א</v>
       </c>
       <c r="AD5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(AD4,"ddd"),1)</f>
         <v>ב</v>
       </c>
       <c r="AE5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(AE4,"ddd"),1)</f>
         <v>ג</v>
       </c>
       <c r="AF5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(AF4,"ddd"),1)</f>
         <v>ד</v>
       </c>
       <c r="AG5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(AG4,"ddd"),1)</f>
         <v>ה</v>
       </c>
       <c r="AH5" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f>RIGHT(TEXT(AH4,"ddd"),1)</f>
         <v>ו</v>
       </c>
       <c r="AI5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AJ5" s="43" t="str">
-        <f t="shared" si="9"/>
+      <c r="AJ5" s="40" t="str">
+        <f>RIGHT(TEXT(AJ4,"ddd"),1)</f>
         <v>א</v>
       </c>
-      <c r="AK5" s="44" t="str">
-        <f t="shared" si="9"/>
+      <c r="AK5" s="40" t="str">
+        <f>RIGHT(TEXT(AK4,"ddd"),1)</f>
         <v>ב</v>
       </c>
-      <c r="AL5" s="44" t="str">
-        <f t="shared" si="9"/>
+      <c r="AL5" s="40" t="str">
+        <f>RIGHT(TEXT(AL4,"ddd"),1)</f>
         <v>ג</v>
       </c>
-      <c r="AM5" s="44" t="str">
-        <f t="shared" si="9"/>
+      <c r="AM5" s="40" t="str">
+        <f>RIGHT(TEXT(AM4,"ddd"),1)</f>
         <v>ד</v>
       </c>
-      <c r="AN5" s="44" t="str">
-        <f t="shared" si="9"/>
+      <c r="AN5" s="40" t="str">
+        <f>RIGHT(TEXT(AN4,"ddd"),1)</f>
         <v>ה</v>
       </c>
-      <c r="AO5" s="44" t="str">
-        <f t="shared" si="9"/>
+      <c r="AO5" s="40" t="str">
+        <f>RIGHT(TEXT(AO4,"ddd"),1)</f>
         <v>ו</v>
       </c>
-      <c r="AP5" s="45" t="s">
+      <c r="AP5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AQ5" s="41" t="str">
-        <f t="shared" si="9"/>
+      <c r="AQ5" s="38" t="str">
+        <f>RIGHT(TEXT(AQ4,"ddd"),1)</f>
         <v>א</v>
       </c>
-      <c r="AR5" s="41" t="str">
-        <f t="shared" si="9"/>
+      <c r="AR5" s="40" t="str">
+        <f>RIGHT(TEXT(AR4,"ddd"),1)</f>
         <v>ב</v>
       </c>
-      <c r="AS5" s="41" t="str">
-        <f t="shared" si="9"/>
+      <c r="AS5" s="40" t="str">
+        <f>RIGHT(TEXT(AS4,"ddd"),1)</f>
         <v>ג</v>
       </c>
-      <c r="AT5" s="42" t="str">
-        <f t="shared" si="9"/>
+      <c r="AT5" s="39" t="str">
+        <f>RIGHT(TEXT(AT4,"ddd"),1)</f>
         <v>ד</v>
       </c>
       <c r="AU5" s="5"/>
@@ -1971,7 +1991,7 @@
         <v>45772</v>
       </c>
       <c r="D6" s="15">
-        <f t="shared" ref="D6:D17" si="10">C6+E6-1</f>
+        <f t="shared" ref="D6:D17" si="1">C6+E6-1</f>
         <v>45778</v>
       </c>
       <c r="E6" s="30">
@@ -2028,7 +2048,7 @@
         <v>45777</v>
       </c>
       <c r="D7" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45777</v>
       </c>
       <c r="E7" s="31">
@@ -2085,7 +2105,7 @@
         <v>45779</v>
       </c>
       <c r="D8" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45780</v>
       </c>
       <c r="E8" s="31">
@@ -2143,7 +2163,7 @@
         <v>45781</v>
       </c>
       <c r="D9" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45790</v>
       </c>
       <c r="E9" s="31">
@@ -2201,7 +2221,7 @@
         <v>45786</v>
       </c>
       <c r="D10" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45786</v>
       </c>
       <c r="E10" s="31">
@@ -2259,7 +2279,7 @@
         <v>45788</v>
       </c>
       <c r="D11" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45799</v>
       </c>
       <c r="E11" s="31">
@@ -2317,7 +2337,7 @@
         <v>45800</v>
       </c>
       <c r="D12" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45800</v>
       </c>
       <c r="E12" s="31">
@@ -2375,7 +2395,7 @@
         <v>45802</v>
       </c>
       <c r="D13" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45809</v>
       </c>
       <c r="E13" s="31">
@@ -2433,7 +2453,7 @@
         <v>45794</v>
       </c>
       <c r="D14" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45794</v>
       </c>
       <c r="E14" s="31">
@@ -2491,7 +2511,7 @@
         <v>45810</v>
       </c>
       <c r="D15" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45810</v>
       </c>
       <c r="E15" s="31">
@@ -2549,7 +2569,7 @@
         <v>45811</v>
       </c>
       <c r="D16" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45812</v>
       </c>
       <c r="E16" s="31">
@@ -2607,7 +2627,7 @@
         <v>45811</v>
       </c>
       <c r="D17" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45811</v>
       </c>
       <c r="E17" s="32">
@@ -2729,21 +2749,15 @@
       <formula>AND(F$4&gt;=$C6,F$4&lt;=$D6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
+  <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="כותרת הפרוייקט. הזן כותרת חדשה בתא זה. סמן תקופה בתא H2. מקרא התרשים מופיע בתאים J2 עד AI2" sqref="B1" xr:uid="{9B542A71-B66E-4122-ABCE-B7996B7A40B3}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="הזן את תקופת המשך בפועל בעמודה F, החל מתא _x000a_F5" sqref="E5" xr:uid="{62361F6B-8944-4870-B9F5-33DD8C3B3E8F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="הזן פעילות בעמודה B, החל מתא B5_x000a_" sqref="B5" xr:uid="{966A3CBC-256F-4F49-8357-5C3B0B75F8AD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="מתכנן הפרוייקטים משתמש בתקופות כמרווחי זמן. 'התחלה=1' מציין תקופה 1, ו'משך=5' מציין שהפרוייקט מתפרס על-פני 5 תקופות, החל מתקופת ההתחלה. הזן נתונים החל מתא B5 כדי לעדכן את התרשים" sqref="A1" xr:uid="{3C8AB6A0-F298-4EDB-8126-9F0E20653DD8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="הזן את תקופת ההתחלה בפועל בעמודה E, החל מתא _x000a_E5" sqref="C5:D5" xr:uid="{9231FCF4-8664-476C-B8D4-3C5B0BADFD5A}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הקלד ערך בין 1 ל- 60 או בחר תקופה מהרשימה. הקש על 'ביטול', הקש ALT+חץ למטה ולאחר מכן הקש ENTER כדי לבחור ערך" prompt="הזן תקופה בטווח של 1 עד 60 או בחר תקופה מהרשימה. הקש ALT+חץ למטה כדי לנווט ברשימה ולאחר מכן הקש ENTER כדי לבחור ערך" sqref="C2:C4" xr:uid="{A56C6E63-8E57-41EE-AA70-50E027B987AD}">
       <formula1>"2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="מתכנן הפרוייקטים משתמש בתקופות כמרווחי זמן. 'התחלה=1' מציין תקופה 1, ו'משך=5' מציין שהפרוייקט מתפרס על-פני 5 תקופות, החל מתקופת ההתחלה. הזן נתונים החל מתא B5 כדי לעדכן את התרשים" sqref="A1" xr:uid="{3C8AB6A0-F298-4EDB-8126-9F0E20653DD8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="התקופות מוצגות בתרשים, מ- 1 עד 60, החל מתא H4 ועד תא BO4 " sqref="F4:AT4" xr:uid="{5E1CEF30-B759-45C7-A056-FC63048CD0C9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="תא מקרא זה מציין את אחוז הפרוייקט שבוצע מעבר לתוכנית" sqref="AC4" xr:uid="{7B324AA4-91A3-4267-BF67-2EF357B773DC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="תא מקרא זה מציין את המשך בפועל מעבר לתוכנית" sqref="U4" xr:uid="{E889712E-6ABA-4E80-B30D-34A65155757B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="תא מקרא זה מציין את אחוז הפרוייקט שבוצע" sqref="Q4" xr:uid="{6D2C3C00-4D5A-4276-B4F3-8790C5402E8F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="תא מקרא זה מציין את המשך בפועל" sqref="L4" xr:uid="{F481970D-B046-4FED-8631-98406410A069}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="תא מקרא זה מציין את משך התוכנית" sqref="G4" xr:uid="{559EC7AA-993C-4A95-B925-B9DFC6D6C65C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="הזן את תקופת ההתחלה בפועל בעמודה E, החל מתא _x000a_E5" sqref="C5:D5" xr:uid="{9231FCF4-8664-476C-B8D4-3C5B0BADFD5A}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
